--- a/data/financial_statements/socf/SIVB.xlsx
+++ b/data/financial_statements/socf/SIVB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,2358 +587,2361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>469000000</v>
+        <v>-1304000000</v>
       </c>
       <c r="C2">
-        <v>373000000</v>
+        <v>418000000</v>
       </c>
       <c r="D2">
-        <v>515000000</v>
+        <v>353000000</v>
       </c>
       <c r="E2">
-        <v>394000000</v>
+        <v>533000000</v>
       </c>
       <c r="F2">
-        <v>387000000</v>
+        <v>408000000</v>
       </c>
       <c r="G2">
+        <v>475000000</v>
+      </c>
+      <c r="H2">
         <v>628000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>562000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>439000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>474000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>247351000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>133649000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>275099000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>281718000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>336571000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>291612000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>274931000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>281365000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>247026000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>208026000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>124664000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>154118000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>132516000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>107880000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>103642000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>115647000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>94380000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>76597000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>90009000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>87962000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>94459000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>102390000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>129795000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>64154000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>10356000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>274355000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>191570000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>216180000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>76488000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>60545000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>128000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>163000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>89000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>169000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>133000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>140000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>27000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>19000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>26000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>35627000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5373000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2779000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>39116000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-18055000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-12840000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-6858000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>19516000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>-21301000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>-15881000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>23001000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>-15332000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-12995000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-10859000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-16678000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-27291000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-82000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-698000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-9993000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-7333000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-8920000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-4859000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-6491000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-6106000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-9353000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>3882000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-2547000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-4526000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-1688000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1787000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>84000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>219000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-4000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-93000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-28000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-270000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-81000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-127000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-183000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>39185000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>184815000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>6623000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>27117000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>27830000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>8430000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>15556000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-10694000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-1197000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>11937000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>26783000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>21102000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>20563000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>16179000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>67271000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>13598000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>29860000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-42001000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>21671000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>12325000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>-18616000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-57352000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-5603000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>63377000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-207590000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-108518000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>-174317000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-15715000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-16702000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-11000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-48000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-13000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-68000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-31000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-45000000</v>
-      </c>
-      <c r="H5">
-        <v>-41000000</v>
       </c>
       <c r="I5">
         <v>-41000000</v>
       </c>
       <c r="J5">
+        <v>-41000000</v>
+      </c>
+      <c r="K5">
         <v>-1000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-7982000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>23982000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-13571000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-6579000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-489000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-3361000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-4313000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-23308000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-9848000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-18365000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-5280000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-17240000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-2102000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-6750000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-4832000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>937000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>4860000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-4628000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-2085000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-8399000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1315000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>772000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-9154000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-6162000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-4722000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-6604000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1942000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-871000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>423000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-4735000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6">
         <v>4120000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>552000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-9141000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>156000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>108000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-560000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>243000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>226000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>142000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-279000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>193000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>113000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>121834000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-236834000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>94837000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>65632000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>78300000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-253769000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>51369000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>61319000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>50542000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-106356000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>43420000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>39905000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>38017000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-89653000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>33448000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>31118000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>21383000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-101241000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>37995000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>22877000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>44035000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-74614000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>27948000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>24607000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>25839000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-74687000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>30406000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>32177000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>22717000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-62375000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>281000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>90000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>19000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-92000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-142000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>93000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>114000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-147000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>64419000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>66581000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>47527000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>27570000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-181649000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>94552000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>7142000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>8114000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-90945000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>69869000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>16099000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>29229000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-64684000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>65524000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-9509000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>46096000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-61626000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>28711000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>19541000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-34279000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-4402000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>9283000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>9430000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-19410000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-19983000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>25159000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-17024000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>3804000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-17827000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>6236000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>-623000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>251000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>224000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-8000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-236000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>28000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-67000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-204000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>26000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>76441000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-9441000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>40962000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-175401000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-132687000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>216126000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-108169000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>20212000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-175301000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>199174000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-98775000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-91550000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>173469000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>29616000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>25414000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-35571000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>14045000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>26908000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-8476000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-39171000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>9720000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>47991000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-75282000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-33195000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>102585000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>35475000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-22093000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-6777000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-30982000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>14200000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>433000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1052000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>359000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>670000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>447000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>481000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>214000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>393000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>308000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>576875000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>168125000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>454256000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>259173000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>109821000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>340750000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>229658000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>356524000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-1024000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>348404000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>125792000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>124352000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>284784000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>111937000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>198756000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>130937000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>86006000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>56061000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>84990000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>43328000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>157673000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>53206000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>18894000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>18285000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>168099000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>49990000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>73736000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>65670000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>33416000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-1044000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>-76000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-33000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-32000000</v>
-      </c>
-      <c r="E11">
-        <v>-36000000</v>
       </c>
       <c r="F11">
         <v>-36000000</v>
       </c>
       <c r="G11">
+        <v>-36000000</v>
+      </c>
+      <c r="H11">
         <v>-27000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-14000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-22000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-14000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-25912000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-25088000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-31129000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-15239000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-13128000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-5504000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-17147000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-13867000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-7134000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-7717000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-15414000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-13974000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-10897000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-10599000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-16127000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-13127000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-10377000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-13680000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-16453000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-12926000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-12501000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-12038000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-13099000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-10588000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-12770000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-5974000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-9167000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-7291000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-6940000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-6606000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
         <v>-35000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1116000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-27000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>328000</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>-2291000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-100037000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>672000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1870000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-826000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-20465000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-20686000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-17969000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-18458000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-8835000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-7378000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-5174456000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2222456000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-686574000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-4392195000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-866715000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1515484000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1771496900</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>349121000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-774781000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-924938000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-261159000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-1559376000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-1000613900</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>68635900</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-683115000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>737231000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1658340000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>2479697000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-1684805000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-1344128000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-649388000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-489832000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-867644000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-2860168000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-4211268000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-778043000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-1881123400</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-116421000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>692455000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>428594000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-1152000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-2265000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-2342000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-4720000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-3433000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-3035000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-2538000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-6734000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-1663000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-733591000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-2796409000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-2089849000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-1840321000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-339314000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-505516000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-818429000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-1501443000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-1391539000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-1463998000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-906499000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-1194544000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-546602000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-519454000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-791641000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-279811000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-1093890000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-991939000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-1422369000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-1057869000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>242913000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-36340000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-2375993000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-660287000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-505245000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>67398000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-1073577000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-193343000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-775907000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>110338000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>-556000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-428000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-3200000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-25256000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-23039000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-21031000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-21010000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-15618000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-9055000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-5933959000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-599041000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-2807224000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-6247755000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-1221448000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>904427000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>935921000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-1166189000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-2173454000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-2396653000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-1183072000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-2767894000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-1558113000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-461417000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-1490883000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>444293000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>554073000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1474078000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-3123627000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-2414923000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-418976000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-538210000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-3256735000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-3531043000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-4729283000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-716619000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-2963867000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-317055000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-90392000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>532326000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>9900000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4401000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-22000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>690000000</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>491000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>512000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-33000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-2591732000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3120732000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-360486000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-5354000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>9797000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-616957000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-1999840000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2214006000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-684894000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>68410000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>977344000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>4370000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-50928000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-507505000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>510247000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-500798000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>503219000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-774900000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>771144000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1219000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-75229000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>416416000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1151000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1720000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>100000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-270000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-500000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>180000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-2060000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-158650000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>-2000000</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C17">
         <v>-2000000</v>
       </c>
       <c r="D17">
+        <v>-2000000</v>
+      </c>
+      <c r="E17">
         <v>-27000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>12000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1247000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>141000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>974000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>13000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>13604000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-60604000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>12769000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-4347000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-219969000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-115453000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-140421000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1943000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>7644000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2098000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>10717000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>2370000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>5079000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>8837000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>13158000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1809000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>7102000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>4078000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>4186000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1133000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>6984000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>10107000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>4378000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>5750000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>438740000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>8144000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>8161000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>6122000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>14225000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>18061000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18">
         <v>1582000000</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>985000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>739000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>340000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>-40000000</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C19">
         <v>-40000000</v>
       </c>
       <c r="D19">
+        <v>-40000000</v>
+      </c>
+      <c r="E19">
         <v>-43000000</v>
-      </c>
-      <c r="E19">
-        <v>-23000000</v>
       </c>
       <c r="F19">
         <v>-23000000</v>
       </c>
       <c r="G19">
+        <v>-23000000</v>
+      </c>
+      <c r="H19">
         <v>-12000000</v>
-      </c>
-      <c r="H19">
-        <v>-5000000</v>
       </c>
       <c r="I19">
         <v>-5000000</v>
       </c>
       <c r="J19">
+        <v>-5000000</v>
+      </c>
+      <c r="K19">
         <v>-4000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-4631000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-3369000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-11132000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-10191000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>8920000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>18012000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>16341000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>21649000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>22156000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>17202000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>10265000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>12580178000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>153822000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2196030000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>3923552000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3275841000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2982577000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>727080000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-299244000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2944445000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1674050000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-563277000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>2338129000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>1377743000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>2098077000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>793153000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>590621000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-1164455000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-394062000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>2092419000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>1417838000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1691252000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-488687000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>3170794000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>2727995000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>2909711000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>2982440000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>2478505000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1314576000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-601187000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>119573000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-1274000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-5832000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>8828000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>20273000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>17565000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>23254000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>24376000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>17212000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10233000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>9997419000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>3210581000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2188311000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>3913853000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3065669000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>2250167000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-1413181000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1916705000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2267195000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1744558000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>424784000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>2344869000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>1331894000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>1599409000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>1316558000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>91632000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-654134000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-1164884000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>2867749000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>1420190000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>1623007000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-62164000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>3176321000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>2735464000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>3348551000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>2990314000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>2486166000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>1320878000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-589022000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-21016000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-1397000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-5208000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>5987000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-4313000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-5027000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2704000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3580000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1987000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1486000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4640335000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2779665000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-164657000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-2074729000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1954042000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3495344000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-247602000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1107040000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>92717000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-303691000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-632496000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-298673000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>58565000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1249929000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>24431000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>666862000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-14055000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>365255000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-170888000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-951405000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>1361704000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-547168000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-61523000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-777294000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-1212633000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>2323685000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-403965000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1069493000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-645998000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>510266000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>-33000000</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>14619000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>53000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-53000000</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>17675000000</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>217000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>6781783000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>461000</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>3571539000</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -2832,11 +2949,11 @@
         <v>0</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>2923075000</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="V23">
         <v>0</v>
       </c>
@@ -2844,11 +2961,11 @@
         <v>0</v>
       </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>2545750000</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
       <c r="Z23">
         <v>0</v>
       </c>
@@ -2856,11 +2973,11 @@
         <v>0</v>
       </c>
       <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>1503257000</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
       <c r="AD23">
         <v>0</v>
       </c>
@@ -2868,11 +2985,11 @@
         <v>0</v>
       </c>
       <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>1811014000</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
       <c r="AH23">
         <v>0</v>
       </c>
@@ -2880,11 +2997,11 @@
         <v>0</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
         <v>1538779000</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
       <c r="AL23">
         <v>0</v>
       </c>
@@ -2892,214 +3009,217 @@
         <v>0</v>
       </c>
       <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>1008983000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>-1430000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-5208000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>20606000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-4260000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-5080000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2704000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>21255000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1987000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1486000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4640552000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>9561448000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-164196000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-2074729000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1954042000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>7066883000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-247602000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1107040000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>92717000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2619384000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-632496000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-298673000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>58565000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>3795679000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>24431000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>666862000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-14055000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>1868512000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-170888000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-951405000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1361704000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1263846000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-61523000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-777294000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>-1212633000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>3862464000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-403965000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1069493000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-645998000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1519249000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25">
         <v>51000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>27000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>20154000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>19171000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>16646000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>15122000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>45675000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>11944000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>10523000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>9161000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>8644000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>9892000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>9203000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>13152000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>22342000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>8065000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>8188000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>8215000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>7771000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>7260000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>7520000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>14765000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>6723000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>6396000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>5826000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3218,652 +3338,658 @@
       <c r="AN26">
         <v>0</v>
       </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>0.1707</v>
+        <v>0.3845</v>
       </c>
       <c r="C27">
-        <v>-0.3412</v>
+        <v>0.1704</v>
       </c>
       <c r="D27">
-        <v>-0.5321</v>
+        <v>-0.3416</v>
       </c>
       <c r="E27">
-        <v>-0.2876</v>
+        <v>-0.5339</v>
       </c>
       <c r="F27">
-        <v>-0.4405</v>
+        <v>-0.3043</v>
       </c>
       <c r="G27">
+        <v>-0.4426</v>
+      </c>
+      <c r="H27">
         <v>-0.7304</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-0.7717000000000001</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-0.8361</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-1.189</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-1.1949</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-0.7755</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-0.4889</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-0.5802</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-0.7173</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-0.525</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-0.2852</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-0.1879</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-0.13</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-0.1558</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-0.1784</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-0.2832</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.3362</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-0.308</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-0.1959</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-0.2999</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-0.2145</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-0.2034</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-0.1158</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-0.1474</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-0.247</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-0.0779</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-0.2368</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-0.2494</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-0.3908</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-0.5769</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-0.2281</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-0.3777</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-0.1073</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-0.3363</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>-197000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>317000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-259000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>186000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-133000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-17000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-294000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>62000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-9000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>254712000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-155712000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>169755000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-88778000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-236525000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>53548000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-53971000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>66337000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-225552000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>144322000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-48656000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-35536000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>144700000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-1263000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>44521000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>42580000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-21890000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-49698000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>46975000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-58972000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>59809000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-25709000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-47058000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-34160000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>103719000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-20657000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-6769000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>28333000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-25669000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-46674000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>672000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1870000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-826000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-20465000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-20686000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-17969000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-18458000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-8835000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-7378000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-5174456000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2222456000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-686574000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-4392195000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-866715000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1515484000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1771496900</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>349121000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-774781000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-924938000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-261159000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-1559376000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-1000613900</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>68635900</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-683115000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>737231000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1658340000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>2479697000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-1684805000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-1344128000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-649388000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-489832000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-867644000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-2860168000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-4211268000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-778043000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-1881123400</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-116421000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>692455000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>428594000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>-40000000</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C30">
         <v>-40000000</v>
       </c>
       <c r="D30">
+        <v>-40000000</v>
+      </c>
+      <c r="E30">
         <v>-43000000</v>
-      </c>
-      <c r="E30">
-        <v>-23000000</v>
       </c>
       <c r="F30">
         <v>-23000000</v>
       </c>
       <c r="G30">
+        <v>-23000000</v>
+      </c>
+      <c r="H30">
         <v>-12000000</v>
-      </c>
-      <c r="H30">
-        <v>-5000000</v>
       </c>
       <c r="I30">
         <v>-5000000</v>
       </c>
       <c r="J30">
+        <v>-5000000</v>
+      </c>
+      <c r="K30">
         <v>-4000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-4631000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-3369000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>-2000000</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C31">
         <v>-2000000</v>
       </c>
       <c r="D31">
+        <v>-2000000</v>
+      </c>
+      <c r="E31">
         <v>-27000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1594000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1247000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1126000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1713000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>13000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>5000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>13604000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-60604000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>352769000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-4347000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-219969000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-115453000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-140421000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1943000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>7644000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>2098000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>10717000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>2370000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>5079000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>8837000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>13158000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1809000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>7102000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>4078000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>4186000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1133000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>6984000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>10107000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>4378000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>5750000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>438740000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>8144000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>8161000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>6122000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>14225000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>18061000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>-2000000</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C32">
         <v>-2000000</v>
       </c>
       <c r="D32">
+        <v>-2000000</v>
+      </c>
+      <c r="E32">
         <v>-27000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1594000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1247000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1126000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1713000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>13000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>13604000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-60604000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>352769000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-4347000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-219969000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-115453000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-140421000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1943000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>7644000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>2098000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>10717000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>2370000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>5079000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>8837000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>13158000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>1809000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>7102000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>4078000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>4186000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>1133000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>6984000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>10107000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>4378000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>5750000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>438740000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>8144000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>8161000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>6122000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>14225000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>18061000</v>
       </c>
     </row>
